--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F0907-FE52-48F3-BF4F-8E04485164A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE44023-2BDB-4EE8-9A43-99BC0DCF0D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Author</t>
   </si>
@@ -65,9 +59,6 @@
     <t>Nb_Page</t>
   </si>
   <si>
-    <t>Book Title 1</t>
-  </si>
-  <si>
     <t>Author 1</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
   </si>
   <si>
     <t>Description 1</t>
-  </si>
-  <si>
-    <t>Book Title 2</t>
   </si>
   <si>
     <t>Author 2</t>
@@ -471,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869940BA-D568-45DD-87F0-4FCDCFF6B845}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,68 +492,50 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45323</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
+      <c r="G3">
         <v>250</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE44023-2BDB-4EE8-9A43-99BC0DCF0D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7ED6B-D009-484B-8F93-572B74B4B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
@@ -462,12 +462,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7ED6B-D009-484B-8F93-572B74B4B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1BC9D0-1AA9-4273-B30B-B323296E4541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
@@ -36,11 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+  <si>
+    <t>Title</t>
+  </si>
   <si>
     <t>Author</t>
   </si>
   <si>
+    <t>ISBN</t>
+  </si>
+  <si>
     <t>Genre</t>
   </si>
   <si>
@@ -59,6 +65,12 @@
     <t>Nb_Page</t>
   </si>
   <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Book Title 1</t>
+  </si>
+  <si>
     <t>Author 1</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
     <t>Description 1</t>
   </si>
   <si>
+    <t>Book Title 2</t>
+  </si>
+  <si>
     <t>Author 2</t>
   </si>
   <si>
@@ -87,6 +102,15 @@
   </si>
   <si>
     <t>Description 2</t>
+  </si>
+  <si>
+    <t>Author 3</t>
+  </si>
+  <si>
+    <t>Book Title 3</t>
+  </si>
+  <si>
+    <t>Spanish</t>
   </si>
 </sst>
 </file>
@@ -459,18 +483,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869940BA-D568-45DD-87F0-4FCDCFF6B845}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,51 +517,110 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1234567890123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
         <v>45292</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
         <v>300</v>
       </c>
+      <c r="J2">
+        <v>19.989999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1234567890124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="J3">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>1234567890123</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>45323</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>250</v>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>19.989999999999998</v>
       </c>
     </row>
   </sheetData>
